--- a/database_old/Trace_Report_NOVAMEAL_initial.xlsx
+++ b/database_old/Trace_Report_NOVAMEAL_initial.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rail car\final_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAAFDA9C-63FF-4728-A2D8-A1F9FAB262FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2D68A97-6773-44DE-A586-6487B2C87060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1845" yWindow="3045" windowWidth="15375" windowHeight="7875"/>
+    <workbookView xWindow="4485" yWindow="2970" windowWidth="15375" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="Test_format_trace" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_format_trace!$A$2:$N$3</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Initial</t>
   </si>
@@ -71,24 +68,18 @@
     <t>TILX</t>
   </si>
   <si>
-    <t>WILLMAR</t>
-  </si>
-  <si>
-    <t>MN</t>
-  </si>
-  <si>
-    <t>Departure</t>
-  </si>
-  <si>
-    <t>HWLMKC</t>
+    <t>JOHNSTOWN</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Placed Actual</t>
   </si>
   <si>
     <t>LOVELAND</t>
   </si>
   <si>
-    <t>CO</t>
-  </si>
-  <si>
     <t>Gross Weight</t>
   </si>
   <si>
@@ -98,7 +89,7 @@
     <t>Net Weight</t>
   </si>
   <si>
-    <t>Description unknown, completed 05/12/2023 05:59:19 EDT, by WPJTOWN1.The search returned: 1 events.</t>
+    <t>Description unknown, completed 06/15/2023 05:57:14 EDT, by WPJTOWN1.The search returned: 1 events.</t>
   </si>
   <si>
     <t>Car_no</t>
@@ -955,7 +946,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -993,16 +984,16 @@
         <v>3</v>
       </c>
       <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" t="s">
         <v>17</v>
       </c>
-      <c r="M2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>19</v>
-      </c>
-      <c r="O2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1019,25 +1010,22 @@
         <v>12</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>128</v>
+        <v>1811</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>14</v>
       </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L3">
         <v>285200</v>
@@ -1049,11 +1037,10 @@
         <v>217900</v>
       </c>
       <c r="O3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:N3"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>